--- a/캐릭터기획서_기본양식.xlsx
+++ b/캐릭터기획서_기본양식.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\문서\GitHub\smallprecious\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32B362-0A04-4D39-A5BD-CDDB2535C0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="슈리" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="124">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,185 +313,250 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인간계의 날짜는
+    <t>출신/국가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터의 정체성이나 성격을 표현 할 수 있는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강함 정도?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성격을 한마디로 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신념과의 차이가 뭐지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계도로 퉁칠까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정확한 날짜는 불명
+/
+물의 달, 28번째 날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청풍은 대륙 최대 규모의 배달 대행업체다
+배달대행은 수라와 도적이 들끓는 이시카 대륙에서 필수 직군중 하나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편물 배당대행 청풍소속으로
+청풍 서화지점 물류센터 배달 2팀의 대리를 맡고있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리색과 같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛을 흡수하는 어두운 계통의 눈동자색을 가짐
+깊이가 느껴지고 그 안에 굳은 심지와 꺾이지 않는 의지를 담고있음을 표현하고자 관련계통의 색을 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은혜를 갚는, 소시민적인, 순정파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D&amp;D 성향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신감있는, 유쾌한,
+쾌활한, 행동적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겉으로 드러나는 성격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면적인 성격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜는
 탄생, 광명, 화염, 물, 바람, 어둠, 대지, 죽음, 파멸
 총 9가지의 달이 존재하고 
 달 마다 40개의 날이 존재한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>출신/국가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단계 나눠서 그래프로 표현할것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체형 그림 구하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터의 정체성이나 성격을 표현 할 수 있는 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강함 정도?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성격을 한마디로 표현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신념과의 차이가 뭐지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관계도로 퉁칠까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정확한 날짜는 불명
-/
-물의 달, 28번째 날</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버려진 고아출신이기 때문에 실제 태어난 날짜를 알지 못한다.
+    <t>갈색, 긴 뒷머리를 묶은 샤기컷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각진 턱선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이를 악무는 버릇때문에 턱이 일반적인 형태보다 각진 형태를 띈다
+게임 그래픽 컨셉상(카툰풍 데포르메) 둥글둥글한 얼굴형으로 표현되기때문에 잘 표현되지 않을 수 있는 요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상표는 '헤어' 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고자료의 3~4번 계열의 피부톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+무(武)인의 특성상 좀더 거칠고 어두운 계통의 피부색을 가져야하나(약 5번)
+주인공 캐릭터이기 때문에 조금더 미형으로 표현할 필요가 있어 조금더 밝은 톤으로 설정함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비장미가 느껴지는 담백한 목소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://twitter.com/ysp78/status/1250288333747408897</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고아출신이기 때문에 실제 태어난 날짜를 알지 못한다.
 자신을 거두어 키워준 은인을 만난 날을 생일로 정해서 기념하고있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연의 서화 지방에서 나고 자랐다.
-연은 대륙을 삼분하고있는 거대 국가/세력중 하나로
-연 가문의 영향력아래에 있으며, 중세동양 문화권과 유사한 생활양식을 가졌다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청풍은 대륙 최대 규모의 배달 대행업체다
-배달대행은 수라와 도적이 들끓는 이시카 대륙에서 필수 직군중 하나다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우편물 배당대행 청풍소속으로
-청풍 서화지점 물류센터 배달 2팀의 대리를 맡고있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갈색빛이 도는 검은머리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>색상표로 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리색과 같음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완만한 턱선, 오똑한 코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카툰풍 데포르메 그림체의 정체성중 하나인
-위아래로 살짝 눌린 소위 찐빵형 얼굴형과 오똑한 코의 조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빛을 흡수하는 어두운 계통의 눈동자색을 가짐
-깊이가 느껴지고 그 안에 굳은 심지와 꺾이지 않는 의지를 담고있음을 표현하고자 관련계통의 색을 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은혜를 갚는, 소시민적인, 순정파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D&amp;D 성향</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중립</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신감있는, 유쾌한,
-쾌활한, 행동적인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>겉으로 드러나는 성격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내면적인 성격</t>
+    <t>168cm / 67kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대륙 서부, 이월지역에 위치한 중심 도시로 
+주택담보대출로 구매한 집에서 홀로 지내고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸우거나 달리는 등 움직임이 큰 모션에서 묶어낸 뒷 머리가 휘날리면서
+역동적인 느낌을 줄 수 있을 정도의 길이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>부모로부터 버려진 고아라는 기억때문에 또다시 버림받는 것이 두려워 끊임없이 무의식적으로 주변인들에게 자신의 가치를 보이고, 증명하기위해 노력하며, 약한모습을 드러내려하지 않는다.
-그렇기에 어떤 상황에서도 말장난과 유머를 잃지 않으며, 절체절명의 위기의 순간에도 여유로운 모습을 보인다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대륙 서부, 서화지방에 위치한 도시로
-주택담보대출로 구매한 집에서 홀로 지내고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">자신을 끝없는 절망의 밑바닥에서 끌어올려준 은인이 보여준 선의를 마음속 깊이 새기고있다.
+그렇기에 어떤 상황에서도 말장난과 유머를 잃지 않으며, 절체절명의 위기의 순간에도 여유로운 모습을 내보인다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자신을 끝없는 절망의 밑바닥에서 구해준, 은인이 내비친 선의를 마음속 깊이 새기고있다.
 주택담보대출을 갚기위해 짜잘한 부분에서 금전을 아끼려는 소시민적인 모습을 보이기도 한다.
 지켜보는 눈이없는 장소에서는 강한척 연기하는 자신을 내려놓을 수있다.
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직사각형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연의 이월지역에 위치한 서화의 빈민촌에서 유년기를 보냈다
+연은 대륙을 삼분하고있는 거대 국가/세력중 하나로
+연 가문의 영향력아래에 있으며, 중세동양 문화권과 유사한 생활양식을 가졌다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스피드(1994) SBS 더빙판 버전 잭 트레븐형사(주인공)를 연기했던 구자형 성우 톤
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거의 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">꾸준히 수련을하기 때문에 지방이 붙을일이 거의 없음
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준적인 직사각형의 몸 형태에 꾸준한 수련을 통해 몸 곳곳에 고르게 근육이 붙어있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근육이 살짝 도드라질 정도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">꾸준한 수련과 실전 경험을 통해 근육이 밸런스있게 퍼져있다
+스피디한 전투형태를 부각시키기 위해 많지 않게 책정함
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유/소년기시절 충분히 영양을 섭취하지못해 살짝 작은 키를 가지게 됨
+수련을 통해 어느정도의 근력을 갖추고있기에 BMI표준(168-64)보다 살짝 높게 몸무게를 가졌다
+단, 민첩함을 살린 스피디한 검술을 구사하기에 높지않은 수준으로 지정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +578,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -788,36 +863,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,132 +899,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -987,6 +1078,461 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2339629</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>250534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3254157</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3356117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A43B4DCF-5376-4F53-949B-AB8129A146D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20545986" y="6673105"/>
+          <a:ext cx="914528" cy="3105583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2129117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5112123</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3380015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75AA075A-B9FA-4610-81FD-DD97E224318F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="358588" y="8550088"/>
+          <a:ext cx="4876800" cy="4876800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>329293</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>530999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5091793</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1987763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9694E6B-D987-42BF-952E-63F3A762277D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="452558" y="3646234"/>
+          <a:ext cx="4762500" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1082812</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4457938</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3713630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E24696DD-4FB1-4B2E-8F1D-E69ACF58343B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19281165" y="10197352"/>
+          <a:ext cx="3375126" cy="3590366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6899844</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1148748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13484937-2A34-4EE6-8188-CE9EEAD78E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11217088" y="16685558"/>
+          <a:ext cx="6754168" cy="1047896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1455965</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>258535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5733287</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>820588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653823AA-5A7D-4995-803C-906F311D58C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12532179" y="14845392"/>
+          <a:ext cx="4277322" cy="562053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30832</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>921205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>373302</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7A10C6-7CC9-4390-AAAB-7E0C6FD7440C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23897761" y="19086741"/>
+          <a:ext cx="1703184" cy="4154260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6871173</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1020669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436BFF5A-7332-40E0-91CC-650ADD8E9C93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11307535" y="19988893"/>
+          <a:ext cx="6639852" cy="952633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6884780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1170348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9569A97-3809-468C-9538-EB39515A9346}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11321142" y="21390429"/>
+          <a:ext cx="6639852" cy="952633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1251,603 +1797,622 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="34.125" customWidth="1"/>
+    <col min="2" max="2" width="70.625" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="35" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
     <col min="6" max="6" width="93.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41" style="1" customWidth="1"/>
+    <col min="7" max="7" width="74.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>38</v>
+      <c r="G3" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="47" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:8" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="47" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="47" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="47" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="47" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="6"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G12" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="10"/>
+      <c r="C13" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="2:8" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="43" t="s">
+    </row>
+    <row r="14" spans="2:8" ht="285" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="2:8" ht="304.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="2:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="47" t="s">
+      <c r="F16" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="57"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="44" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="6"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="10"/>
+      <c r="C26" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="2:8" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="12"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="46" t="s">
+      <c r="F28" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="21"/>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="6"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="2:7" ht="194.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="6"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="10"/>
+      <c r="C39" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="36" t="s">
+      <c r="E39" s="46"/>
+      <c r="F39" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="G39" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="6"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="6"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="6"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="10"/>
+      <c r="C43" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="46"/>
+      <c r="F43" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="35"/>
-    </row>
-    <row r="20" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="35"/>
-    </row>
-    <row r="22" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="35"/>
-    </row>
-    <row r="23" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="35"/>
-    </row>
-    <row r="24" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="35"/>
-    </row>
-    <row r="25" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="12"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="21"/>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="2:7" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="2:7" ht="194.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="12"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="21"/>
-      <c r="C39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="39"/>
-    </row>
-    <row r="41" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="35"/>
-    </row>
-    <row r="42" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="12"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="38"/>
-    </row>
-    <row r="43" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="21"/>
-      <c r="C43" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>47</v>
+      <c r="G43" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="12"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="47" t="s">
+      <c r="B44" s="6"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="35"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="12"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="47" t="s">
+      <c r="B45" s="6"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="35"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="12"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="47" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="35"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="12"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="47" t="s">
+      <c r="B47" s="6"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="35"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="21"/>
     </row>
     <row r="48" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="14"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="48" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="38"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1870,13 +2435,17 @@
     <mergeCell ref="D26:E26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G18" r:id="rId1" xr:uid="{92EC0810-A4E4-484B-B3E5-0DF7A9503E48}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1896,486 +2465,486 @@
   <sheetData>
     <row r="1" spans="2:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="35"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="21" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="35"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="35"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="21" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="35"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="21" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="35"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="35"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="21" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="35"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="21" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="35"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="12"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="38"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="21"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="27" t="s">
+      <c r="E13" s="46"/>
+      <c r="F13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="23" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="39"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="17" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="35"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="17" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="35"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="35"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="17" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="35"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="35"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="35"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="17" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="35"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="17" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="35"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="17" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="35"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="17" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="35"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="12"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="24" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="38"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="21"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="25" t="s">
+      <c r="E26" s="46"/>
+      <c r="F26" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="17" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="17" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="17" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="17" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="17" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="17" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="17" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="17" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="12"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="17" t="s">
+      <c r="B36" s="6"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="21"/>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="25" t="s">
+      <c r="E37" s="46"/>
+      <c r="F37" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="29" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="39"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="25"/>
     </row>
     <row r="39" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="21" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="35"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="12"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="22" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="38"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="21"/>
-      <c r="C41" s="33" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="11" t="s">
+      <c r="E41" s="55"/>
+      <c r="F41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="21" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="35"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="21" t="s">
+      <c r="B43" s="6"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="35"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="12"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="21" t="s">
+      <c r="B44" s="6"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="35"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="12"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="21" t="s">
+      <c r="B45" s="6"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="35"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="14"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="22" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="38"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2385,6 +2954,9 @@
     <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C3:C12"/>
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="C13:C25"/>
@@ -2393,9 +2965,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="C37:C40"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C3:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/캐릭터기획서_기본양식.xlsx
+++ b/캐릭터기획서_기본양식.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\문서\GitHub\smallprecious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32B362-0A04-4D39-A5BD-CDDB2535C0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="슈리" sheetId="2" r:id="rId1"/>
-    <sheet name="기본양식" sheetId="1" r:id="rId2"/>
+    <sheet name="비슈누" sheetId="3" r:id="rId2"/>
+    <sheet name="칼리" sheetId="5" r:id="rId3"/>
+    <sheet name="기본양식" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="165">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,11 +552,198 @@
 단, 민첩함을 살린 스피디한 검술을 구사하기에 높지않은 수준으로 지정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>칼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸망한 차원에 격리되어있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주와 같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주의 시작부터 존재해왔음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본체는 본인이 마지막으로 멸망시킨 차원에 자리하고있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 것을 멸망시키는 칼리의 행적과 뒤틀린 형태를 목도한
+신들이 그 존재를 부르는 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원적 존재
+(인간의 입장에서는 신)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트라무티가 지어준 이름이다.
+원전신화인 인도신화에서 멸망의 시대인 '칼리유가'때 나타나는
+악마의 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라흐마가 현 우주를 창조하며 같이 빚어진 존재로
+우주 전체를 멸망시키려는 의지이자 우주의 멸망이라는 개념적인 존재이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증오의 화신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트라무티의 실험장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 보라색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의적, 외로움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격적, 증오, 상대를무시하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주 전제를 멸망시키겠다는 목적을 가지고 있기 때문에 그러한 목적이 표면에 그대로 드러난다.
+트라무의 실체와 우주의 목적을 홀로 알고있기 때문에 아무것도 모르는 다른 존재들을 바보취급한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주의 비밀을 홀로 알고있고, 다른 어떤 존재에게도 말 할 수 없기에 그 누구에게도 이해 받을 수 없는 목적을 추구하고있어 마음 한켠에 외로움과 회의감을 느끼고있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트라무티에 대한 증오와 분노가 모든 행동의 기본 원리이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전한 존재를 만들어낸다는 우주의 창조 목적과 고의적으로 세상에 부조리를 뿌려놓고 그들의 고통을 방관하는 트라무티의 태도를 보고
+이 세상은 그들의 실험장일 뿐이라는 생각을 하게됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~구나, ~거라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다른 모든 존재들을 하대하고 깔보며, 무시하는 말투를 사용함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼돈 악(질서 악)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주의 멸망
+/
+자신의 소멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트라무티의 계획을 방해하기 위해서.
+그들이 나를 다른 피조물들의 시련을 위한 목적정도로 만들었다면, 시련 정도가 아닌 멸망이 되어주겠다고 마음 먹음
+마음 한구석에는 이렇게 날뛰면 언젠가 소멸되어 끔찍한 진실을 짊어진 고통과 외로움에서 해방되지 않을까 하는 작은 기대감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 존재들에게는 우주의 멸망을 추구하는 칼리의 모습이 혼돈 악으로 비치지만 칼리 본인은 복수라는 명확한 목적을 가지고 행동하고 있기에 질서 악의 성향을 가지고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 모든 존재들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리의 목적은 우주 멸망과 존재의 소멸이다.
+여기에 동조하는 존재는 어디에도 존재하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주 초기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과도기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형구체에 촉수가 뻗어나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연에서 쏟아지는 멸망,
+멸망과 증오의 화신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸망시킨 차원의 존재들을 집어삼키고 흡수하여
+매우 끔찍하고 뒤틀린 형태를 하고있다.
+칼리가 흡수한 존재들의 편린이 어지럽게 뒤틀린 거대한 구형의 육체에 여기저기 촉수와 손발이 길게 뻗어나와있다. 외피 곳곳에 혐오스럽게 눈동자들이 박혀있다. 
+평범한 피조물들은 그것의 온전한 모습을 눈에 담는것 만으로 정신이 붕괴되어 미쳐버리고만다.
+최종보스전에서는 찢어진 차원의 틈 너머로 수십개의 눈동자가 있으며, 여러 개의 손과 촉수로 차원의 틈을 비집고 나오려는 모습으로 묘사한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에서 보라색이 주로 멸망, 심연과 관련된 이미지를 가지고 있기에 보라색을 사용하였음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~현재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">영겁의 시간동안 수많은 차원을 떠돌며 세계와 차원을 멸망시키고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리는 창조의 과정에서 생겨난 찌꺼기들이 쌓이는 심연의 밑바닥에서 태어난 존재중 하나였다.
+트라무티중 하나인 시바가 그 중 하나에게 칼리라는 이름과 우주의 거대한 비밀을 속삭여 주었다. 그리고 칼리가 다른 피조물들의 시련을 위해 창조되었다는 것 까지
+모든 사실을 알게된 칼리는 온갖 두려움에 몸부림쳤다. 다른 존재들에게 이 사실을 알리려고 해도 그 사실에 대해 말하려고 할때마다 입이 열리지 않았고, 관련된 암시를 남기려고 해도 몸이 굳어버렸다.
+그렇게 칼리는 미쳐버렸다. 자신을 이해하지 못하는 다른 무지한 것들에 환멸을 느꼈다.
+자신도 다른 존재들처럼 아무것도 모른채 살아가면 행복했을텐데... 마침내 칼리의 증오는 트라무티에게 향했다.
+그들의 실험장을 완전하게 망쳐버림으로써 작은 복수를 완성시키고자 또 다른 심연의 찌꺼기들을 먹어치우며 다음과 같이 다짐했다.
+우주를 위한 '시련'으로써 자신를 창조했다면 그것을 넘어선 '멸망'이 되리라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,7 +805,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -862,6 +1050,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -871,7 +1115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,6 +1242,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,17 +1302,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1061,9 +1431,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF91BEC5"/>
       <color rgb="FFF19687"/>
       <color rgb="FFFFD56D"/>
-      <color rgb="FF91BEC5"/>
       <color rgb="FF4C868F"/>
       <color rgb="FFFFC845"/>
       <color rgb="FFEA6953"/>
@@ -1797,11 +2167,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1817,24 +2187,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10"/>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="14" t="s">
         <v>68</v>
       </c>
@@ -1844,7 +2214,7 @@
     </row>
     <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
-      <c r="C4" s="43"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="33" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +2228,7 @@
     </row>
     <row r="5" spans="2:8" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
-      <c r="C5" s="43"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="33" t="s">
         <v>61</v>
       </c>
@@ -1868,7 +2238,7 @@
     </row>
     <row r="6" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
-      <c r="C6" s="43"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="33" t="s">
         <v>26</v>
       </c>
@@ -1882,7 +2252,7 @@
     </row>
     <row r="7" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="C7" s="43"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="33" t="s">
         <v>1</v>
       </c>
@@ -1896,7 +2266,7 @@
     </row>
     <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
-      <c r="C8" s="43"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="33" t="s">
         <v>2</v>
       </c>
@@ -1910,7 +2280,7 @@
     </row>
     <row r="9" spans="2:8" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
-      <c r="C9" s="43"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="33" t="s">
         <v>36</v>
       </c>
@@ -1927,7 +2297,7 @@
     </row>
     <row r="10" spans="2:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
-      <c r="C10" s="43"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="33" t="s">
         <v>71</v>
       </c>
@@ -1941,7 +2311,7 @@
     </row>
     <row r="11" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
-      <c r="C11" s="43"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="33" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +2325,7 @@
     </row>
     <row r="12" spans="2:8" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
-      <c r="C12" s="44"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="34" t="s">
         <v>24</v>
       </c>
@@ -1971,13 +2341,13 @@
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="16" t="s">
         <v>90</v>
       </c>
@@ -1987,21 +2357,21 @@
     </row>
     <row r="14" spans="2:8" ht="285" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
-      <c r="C14" s="43"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="44" t="s">
         <v>112</v>
       </c>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="2:8" ht="304.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="43"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="37" t="s">
         <v>35</v>
       </c>
@@ -2015,7 +2385,7 @@
     </row>
     <row r="16" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="43"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="37" t="s">
         <v>100</v>
       </c>
@@ -2031,7 +2401,7 @@
     </row>
     <row r="17" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
-      <c r="C17" s="43"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="37" t="s">
         <v>17</v>
       </c>
@@ -2044,25 +2414,25 @@
       <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="43"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="46" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
-      <c r="C19" s="43"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="37" t="s">
         <v>33</v>
       </c>
@@ -2076,7 +2446,7 @@
     </row>
     <row r="20" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
-      <c r="C20" s="43"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="37" t="s">
         <v>18</v>
       </c>
@@ -2090,35 +2460,35 @@
     </row>
     <row r="21" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
-      <c r="C21" s="43"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="37" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="47" t="s">
         <v>119</v>
       </c>
       <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
-      <c r="C22" s="43"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="37" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="47" t="s">
         <v>122</v>
       </c>
       <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
-      <c r="C23" s="43"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="37" t="s">
         <v>19</v>
       </c>
@@ -2128,7 +2498,7 @@
     </row>
     <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
-      <c r="C24" s="43"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="37" t="s">
         <v>20</v>
       </c>
@@ -2140,7 +2510,7 @@
     </row>
     <row r="25" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
-      <c r="C25" s="44"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="38" t="s">
         <v>21</v>
       </c>
@@ -2152,13 +2522,13 @@
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="10"/>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="46"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="14" t="s">
         <v>46</v>
       </c>
@@ -2168,7 +2538,7 @@
     </row>
     <row r="27" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
-      <c r="C27" s="43"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="39" t="s">
         <v>96</v>
       </c>
@@ -2182,7 +2552,7 @@
     </row>
     <row r="28" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
-      <c r="C28" s="43"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="39" t="s">
         <v>97</v>
       </c>
@@ -2196,7 +2566,7 @@
     </row>
     <row r="29" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
-      <c r="C29" s="43"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="37" t="s">
         <v>8</v>
       </c>
@@ -2208,7 +2578,7 @@
     </row>
     <row r="30" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
-      <c r="C30" s="43"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="37" t="s">
         <v>87</v>
       </c>
@@ -2220,7 +2590,7 @@
     </row>
     <row r="31" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
-      <c r="C31" s="43"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="37" t="s">
         <v>11</v>
       </c>
@@ -2230,7 +2600,7 @@
     </row>
     <row r="32" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
-      <c r="C32" s="43"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="37" t="s">
         <v>9</v>
       </c>
@@ -2242,7 +2612,7 @@
     </row>
     <row r="33" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
-      <c r="C33" s="43"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="37" t="s">
         <v>13</v>
       </c>
@@ -2252,7 +2622,7 @@
     </row>
     <row r="34" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
-      <c r="C34" s="43"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="37" t="s">
         <v>10</v>
       </c>
@@ -2262,7 +2632,7 @@
     </row>
     <row r="35" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
-      <c r="C35" s="43"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="37" t="s">
         <v>12</v>
       </c>
@@ -2272,7 +2642,7 @@
     </row>
     <row r="36" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
-      <c r="C36" s="43"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="37" t="s">
         <v>77</v>
       </c>
@@ -2282,7 +2652,7 @@
     </row>
     <row r="37" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
-      <c r="C37" s="43"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="37" t="s">
         <v>76</v>
       </c>
@@ -2292,7 +2662,7 @@
     </row>
     <row r="38" spans="2:7" ht="194.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
-      <c r="C38" s="43"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="37" t="s">
         <v>14</v>
       </c>
@@ -2302,13 +2672,13 @@
     </row>
     <row r="39" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="10"/>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="46"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="14" t="s">
         <v>92</v>
       </c>
@@ -2318,7 +2688,7 @@
     </row>
     <row r="40" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
-      <c r="C40" s="43"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="40" t="s">
         <v>29</v>
       </c>
@@ -2330,7 +2700,7 @@
     </row>
     <row r="41" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
-      <c r="C41" s="43"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="33" t="s">
         <v>30</v>
       </c>
@@ -2340,7 +2710,7 @@
     </row>
     <row r="42" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
-      <c r="C42" s="44"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="34" t="s">
         <v>31</v>
       </c>
@@ -2350,13 +2720,13 @@
     </row>
     <row r="43" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="10"/>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="46"/>
+      <c r="E43" s="52"/>
       <c r="F43" s="14" t="s">
         <v>93</v>
       </c>
@@ -2366,7 +2736,7 @@
     </row>
     <row r="44" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
-      <c r="C44" s="48"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="33" t="s">
         <v>50</v>
       </c>
@@ -2376,7 +2746,7 @@
     </row>
     <row r="45" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
-      <c r="C45" s="48"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="33" t="s">
         <v>56</v>
       </c>
@@ -2386,7 +2756,7 @@
     </row>
     <row r="46" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
-      <c r="C46" s="48"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="33" t="s">
         <v>57</v>
       </c>
@@ -2396,7 +2766,7 @@
     </row>
     <row r="47" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
-      <c r="C47" s="48"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="33" t="s">
         <v>51</v>
       </c>
@@ -2406,7 +2776,7 @@
     </row>
     <row r="48" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="8"/>
-      <c r="C48" s="49"/>
+      <c r="C48" s="55"/>
       <c r="D48" s="34" t="s">
         <v>58</v>
       </c>
@@ -2436,7 +2806,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G18" r:id="rId1" xr:uid="{92EC0810-A4E4-484B-B3E5-0DF7A9503E48}"/>
+    <hyperlink ref="G18" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2445,10 +2815,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -2465,34 +2835,34 @@
   <sheetData>
     <row r="1" spans="2:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10"/>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="42" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
-      <c r="C4" s="43"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="10" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +2872,7 @@
     </row>
     <row r="5" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
-      <c r="C5" s="43"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
@@ -2512,7 +2882,7 @@
     </row>
     <row r="6" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
-      <c r="C6" s="43"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
@@ -2522,7 +2892,7 @@
     </row>
     <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="C7" s="43"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="10" t="s">
         <v>1</v>
       </c>
@@ -2532,7 +2902,7 @@
     </row>
     <row r="8" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
-      <c r="C8" s="43"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="10" t="s">
         <v>2</v>
       </c>
@@ -2542,7 +2912,7 @@
     </row>
     <row r="9" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
-      <c r="C9" s="43"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="10" t="s">
         <v>36</v>
       </c>
@@ -2552,7 +2922,7 @@
     </row>
     <row r="10" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
-      <c r="C10" s="43"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
@@ -2562,7 +2932,7 @@
     </row>
     <row r="11" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
-      <c r="C11" s="43"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="10" t="s">
         <v>4</v>
       </c>
@@ -2572,7 +2942,7 @@
     </row>
     <row r="12" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
-      <c r="C12" s="44"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="11" t="s">
         <v>24</v>
       </c>
@@ -2582,23 +2952,23 @@
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="16" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
-      <c r="C14" s="43"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="12" t="s">
         <v>16</v>
       </c>
@@ -2608,7 +2978,7 @@
     </row>
     <row r="15" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="43"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="9" t="s">
         <v>35</v>
       </c>
@@ -2618,7 +2988,7 @@
     </row>
     <row r="16" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="43"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="9" t="s">
         <v>34</v>
       </c>
@@ -2628,7 +2998,7 @@
     </row>
     <row r="17" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
-      <c r="C17" s="43"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="9" t="s">
         <v>17</v>
       </c>
@@ -2638,7 +3008,7 @@
     </row>
     <row r="18" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
-      <c r="C18" s="43"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="9" t="s">
         <v>32</v>
       </c>
@@ -2648,7 +3018,7 @@
     </row>
     <row r="19" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
-      <c r="C19" s="43"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="9" t="s">
         <v>33</v>
       </c>
@@ -2658,7 +3028,7 @@
     </row>
     <row r="20" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
-      <c r="C20" s="43"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="9" t="s">
         <v>18</v>
       </c>
@@ -2668,7 +3038,7 @@
     </row>
     <row r="21" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
-      <c r="C21" s="43"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="9" t="s">
         <v>22</v>
       </c>
@@ -2678,7 +3048,7 @@
     </row>
     <row r="22" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
-      <c r="C22" s="43"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="9" t="s">
         <v>23</v>
       </c>
@@ -2688,7 +3058,7 @@
     </row>
     <row r="23" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
-      <c r="C23" s="43"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="9" t="s">
         <v>19</v>
       </c>
@@ -2698,7 +3068,7 @@
     </row>
     <row r="24" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
-      <c r="C24" s="43"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="9" t="s">
         <v>20</v>
       </c>
@@ -2708,7 +3078,7 @@
     </row>
     <row r="25" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
-      <c r="C25" s="44"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="13" t="s">
         <v>21</v>
       </c>
@@ -2718,23 +3088,23 @@
     </row>
     <row r="26" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="10"/>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="46"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="42" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
-      <c r="C27" s="43"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="9" t="s">
         <v>6</v>
       </c>
@@ -2744,7 +3114,7 @@
     </row>
     <row r="28" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
-      <c r="C28" s="43"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="9" t="s">
         <v>7</v>
       </c>
@@ -2754,7 +3124,7 @@
     </row>
     <row r="29" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
-      <c r="C29" s="43"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="9" t="s">
         <v>8</v>
       </c>
@@ -2764,7 +3134,7 @@
     </row>
     <row r="30" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
-      <c r="C30" s="43"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="9" t="s">
         <v>11</v>
       </c>
@@ -2774,7 +3144,7 @@
     </row>
     <row r="31" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
-      <c r="C31" s="43"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="9" t="s">
         <v>9</v>
       </c>
@@ -2784,7 +3154,7 @@
     </row>
     <row r="32" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
-      <c r="C32" s="43"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="9" t="s">
         <v>13</v>
       </c>
@@ -2794,7 +3164,7 @@
     </row>
     <row r="33" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
-      <c r="C33" s="43"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
@@ -2804,7 +3174,7 @@
     </row>
     <row r="34" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
-      <c r="C34" s="43"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="9" t="s">
         <v>12</v>
       </c>
@@ -2814,7 +3184,7 @@
     </row>
     <row r="35" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
-      <c r="C35" s="43"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="9" t="s">
         <v>27</v>
       </c>
@@ -2824,7 +3194,7 @@
     </row>
     <row r="36" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
-      <c r="C36" s="43"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="9" t="s">
         <v>14</v>
       </c>
@@ -2834,23 +3204,23 @@
     </row>
     <row r="37" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="10"/>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="46"/>
+      <c r="D37" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="52"/>
       <c r="F37" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>54</v>
+        <v>37</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
-      <c r="C38" s="43"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="18" t="s">
         <v>29</v>
       </c>
@@ -2862,7 +3232,7 @@
     </row>
     <row r="39" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
-      <c r="C39" s="43"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="10" t="s">
         <v>30</v>
       </c>
@@ -2872,7 +3242,7 @@
     </row>
     <row r="40" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="6"/>
-      <c r="C40" s="44"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="11" t="s">
         <v>31</v>
       </c>
@@ -2882,23 +3252,23 @@
     </row>
     <row r="41" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="10"/>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="55"/>
+      <c r="D41" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="61"/>
       <c r="F41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="43" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
-      <c r="C42" s="48"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="10" t="s">
         <v>50</v>
       </c>
@@ -2908,7 +3278,7 @@
     </row>
     <row r="43" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6"/>
-      <c r="C43" s="48"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="10" t="s">
         <v>56</v>
       </c>
@@ -2918,7 +3288,7 @@
     </row>
     <row r="44" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
-      <c r="C44" s="48"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="10" t="s">
         <v>57</v>
       </c>
@@ -2928,7 +3298,7 @@
     </row>
     <row r="45" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
-      <c r="C45" s="48"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="10" t="s">
         <v>51</v>
       </c>
@@ -2938,7 +3308,996 @@
     </row>
     <row r="46" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
-      <c r="C46" s="49"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C13:C25"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C26:C36"/>
+    <mergeCell ref="D26:E26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
+    <col min="2" max="2" width="36.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="61.875" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+    </row>
+    <row r="3" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="66"/>
+      <c r="C3" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="74"/>
+    </row>
+    <row r="5" spans="2:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="74"/>
+    </row>
+    <row r="6" spans="2:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="74"/>
+    </row>
+    <row r="7" spans="2:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="74"/>
+    </row>
+    <row r="8" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="74"/>
+    </row>
+    <row r="9" spans="2:7" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="74"/>
+    </row>
+    <row r="10" spans="2:7" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="74"/>
+    </row>
+    <row r="11" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="74"/>
+    </row>
+    <row r="12" spans="2:7" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="72"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="77"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="74"/>
+    </row>
+    <row r="13" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="66"/>
+      <c r="C13" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="79"/>
+      <c r="F13" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="74"/>
+    </row>
+    <row r="15" spans="2:7" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="72"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="93"/>
+    </row>
+    <row r="16" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="66"/>
+      <c r="C16" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="79"/>
+      <c r="F16" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="2:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="2:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="2:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="2:7" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="66"/>
+      <c r="C24" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="79"/>
+      <c r="F24" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="84"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="81"/>
+    </row>
+    <row r="26" spans="2:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="74"/>
+    </row>
+    <row r="27" spans="2:7" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="72"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="85"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="78"/>
+    </row>
+    <row r="28" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="66"/>
+      <c r="C28" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="79"/>
+      <c r="G28" s="71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="72"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="94"/>
+      <c r="G29" s="74"/>
+    </row>
+    <row r="30" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="72"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="95"/>
+      <c r="G30" s="74"/>
+    </row>
+    <row r="31" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="72"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="74"/>
+    </row>
+    <row r="32" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="72"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="100"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="74"/>
+    </row>
+    <row r="33" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="78"/>
+    </row>
+    <row r="34" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="D16:E16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10"/>
+      <c r="C3" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="59"/>
+      <c r="F3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="6"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="10"/>
+      <c r="C13" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="6"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="10"/>
+      <c r="C26" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="6"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="10"/>
+      <c r="C37" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="6"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="6"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="6"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="28"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="10"/>
+      <c r="C41" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="6"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="6"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="6"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="8"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="11" t="s">
         <v>58</v>
       </c>
